--- a/Pedagogie/Progression_PSI.xlsx
+++ b/Pedagogie/Progression_PSI.xlsx
@@ -4527,6 +4527,258 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4551,45 +4803,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4623,15 +4836,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4644,209 +4848,122 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4860,15 +4977,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -4893,114 +5001,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5083,10 +5083,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5106,35 +5124,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6382,28 +6382,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="454" t="str">
+      <c r="E2" s="486" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="469" t="s">
+      <c r="F2" s="453" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="457" t="s">
+      <c r="G2" s="474" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="487" t="str">
+      <c r="H2" s="471" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="487" t="str">
+      <c r="I2" s="471" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="491" t="s">
+      <c r="J2" s="476" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="457" t="s">
+      <c r="K2" s="474" t="s">
         <v>706</v>
       </c>
       <c r="L2" s="200" t="s">
@@ -6438,13 +6438,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="455"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="492"/>
-      <c r="K3" s="490"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="489"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="472"/>
+      <c r="J3" s="477"/>
+      <c r="K3" s="475"/>
       <c r="L3" s="203" t="s">
         <v>624</v>
       </c>
@@ -6477,11 +6477,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="456"/>
-      <c r="F4" s="471"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="473"/>
       <c r="J4" s="206" t="s">
         <v>668</v>
       </c>
@@ -6518,21 +6518,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="466" t="str">
+      <c r="E5" s="450" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="472" t="s">
+      <c r="F5" s="456" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="460" t="s">
+      <c r="G5" s="491" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="451" t="str">
+      <c r="H5" s="483" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="451" t="str">
+      <c r="I5" s="483" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -6568,11 +6568,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="467"/>
-      <c r="F6" s="473"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="452"/>
-      <c r="I6" s="452"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="492"/>
+      <c r="H6" s="484"/>
+      <c r="I6" s="484"/>
       <c r="J6" s="208" t="s">
         <v>671</v>
       </c>
@@ -6607,11 +6607,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="468"/>
-      <c r="F7" s="474"/>
-      <c r="G7" s="462"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="453"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="493"/>
+      <c r="H7" s="485"/>
+      <c r="I7" s="485"/>
       <c r="J7" s="215" t="s">
         <v>672</v>
       </c>
@@ -6648,7 +6648,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="483" t="s">
+      <c r="F8" s="467" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="219" t="s">
@@ -6689,23 +6689,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="481" t="s">
+      <c r="E9" s="465" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="484"/>
-      <c r="G9" s="475" t="s">
+      <c r="F9" s="468"/>
+      <c r="G9" s="459" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="476"/>
-      <c r="I9" s="476"/>
-      <c r="J9" s="476"/>
-      <c r="K9" s="476"/>
-      <c r="L9" s="476"/>
-      <c r="M9" s="476"/>
-      <c r="N9" s="476"/>
-      <c r="O9" s="476"/>
-      <c r="P9" s="476"/>
-      <c r="Q9" s="477"/>
+      <c r="H9" s="460"/>
+      <c r="I9" s="460"/>
+      <c r="J9" s="460"/>
+      <c r="K9" s="460"/>
+      <c r="L9" s="460"/>
+      <c r="M9" s="460"/>
+      <c r="N9" s="460"/>
+      <c r="O9" s="460"/>
+      <c r="P9" s="460"/>
+      <c r="Q9" s="461"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -6721,19 +6721,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="482"/>
-      <c r="F10" s="484"/>
-      <c r="G10" s="478"/>
-      <c r="H10" s="479"/>
-      <c r="I10" s="479"/>
-      <c r="J10" s="479"/>
-      <c r="K10" s="479"/>
-      <c r="L10" s="479"/>
-      <c r="M10" s="479"/>
-      <c r="N10" s="479"/>
-      <c r="O10" s="479"/>
-      <c r="P10" s="479"/>
-      <c r="Q10" s="480"/>
+      <c r="E10" s="466"/>
+      <c r="F10" s="468"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="463"/>
+      <c r="I10" s="463"/>
+      <c r="J10" s="463"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="463"/>
+      <c r="M10" s="463"/>
+      <c r="N10" s="463"/>
+      <c r="O10" s="463"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="464"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -6754,26 +6754,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="416" t="str">
+      <c r="E11" s="500" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="484"/>
-      <c r="G11" s="449" t="s">
+      <c r="F11" s="468"/>
+      <c r="G11" s="478" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="431" t="str">
+      <c r="H11" s="502" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="431" t="str">
+      <c r="I11" s="502" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="449" t="s">
+      <c r="J11" s="478" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="449" t="s">
+      <c r="K11" s="478" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="224" t="s">
@@ -6806,13 +6806,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="417"/>
-      <c r="F12" s="485"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="432"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
+      <c r="E12" s="501"/>
+      <c r="F12" s="469"/>
+      <c r="G12" s="479"/>
+      <c r="H12" s="503"/>
+      <c r="I12" s="503"/>
+      <c r="J12" s="479"/>
+      <c r="K12" s="479"/>
       <c r="L12" s="227" t="s">
         <v>631</v>
       </c>
@@ -6841,21 +6841,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="439" t="str">
+      <c r="E13" s="510" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="486" t="s">
+      <c r="F13" s="470" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="463" t="s">
+      <c r="G13" s="447" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="493" t="str">
+      <c r="H13" s="480" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="493" t="str">
+      <c r="I13" s="480" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -6891,11 +6891,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="440"/>
-      <c r="F14" s="464"/>
-      <c r="G14" s="464"/>
-      <c r="H14" s="494"/>
-      <c r="I14" s="494"/>
+      <c r="E14" s="511"/>
+      <c r="F14" s="448"/>
+      <c r="G14" s="448"/>
+      <c r="H14" s="481"/>
+      <c r="I14" s="481"/>
       <c r="J14" s="385" t="s">
         <v>704</v>
       </c>
@@ -6928,11 +6928,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="441"/>
-      <c r="F15" s="465"/>
-      <c r="G15" s="465"/>
-      <c r="H15" s="495"/>
-      <c r="I15" s="495"/>
+      <c r="E15" s="512"/>
+      <c r="F15" s="449"/>
+      <c r="G15" s="449"/>
+      <c r="H15" s="482"/>
+      <c r="I15" s="482"/>
       <c r="J15" s="236" t="s">
         <v>687</v>
       </c>
@@ -6969,21 +6969,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="418" t="str">
+      <c r="E16" s="445" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="504" t="s">
+      <c r="F16" s="410" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="418" t="s">
+      <c r="G16" s="445" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="445" t="str">
+      <c r="H16" s="513" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="447" t="str">
+      <c r="I16" s="515" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7021,11 +7021,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="419"/>
-      <c r="F17" s="505"/>
-      <c r="G17" s="419"/>
-      <c r="H17" s="446"/>
-      <c r="I17" s="448"/>
+      <c r="E17" s="446"/>
+      <c r="F17" s="411"/>
+      <c r="G17" s="446"/>
+      <c r="H17" s="514"/>
+      <c r="I17" s="516"/>
       <c r="J17" s="248" t="s">
         <v>645</v>
       </c>
@@ -7055,21 +7055,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="433" t="s">
+      <c r="E18" s="504" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="433"/>
-      <c r="G18" s="433"/>
-      <c r="H18" s="433"/>
-      <c r="I18" s="433"/>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
-      <c r="L18" s="433"/>
-      <c r="M18" s="433"/>
-      <c r="N18" s="433"/>
-      <c r="O18" s="433"/>
-      <c r="P18" s="434"/>
-      <c r="Q18" s="435"/>
+      <c r="F18" s="504"/>
+      <c r="G18" s="504"/>
+      <c r="H18" s="504"/>
+      <c r="I18" s="504"/>
+      <c r="J18" s="504"/>
+      <c r="K18" s="504"/>
+      <c r="L18" s="504"/>
+      <c r="M18" s="504"/>
+      <c r="N18" s="504"/>
+      <c r="O18" s="504"/>
+      <c r="P18" s="505"/>
+      <c r="Q18" s="506"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7085,19 +7085,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="436"/>
-      <c r="F19" s="436"/>
-      <c r="G19" s="436"/>
-      <c r="H19" s="436"/>
-      <c r="I19" s="436"/>
-      <c r="J19" s="436"/>
-      <c r="K19" s="436"/>
-      <c r="L19" s="436"/>
-      <c r="M19" s="436"/>
-      <c r="N19" s="436"/>
-      <c r="O19" s="436"/>
-      <c r="P19" s="437"/>
-      <c r="Q19" s="438"/>
+      <c r="E19" s="507"/>
+      <c r="F19" s="507"/>
+      <c r="G19" s="507"/>
+      <c r="H19" s="507"/>
+      <c r="I19" s="507"/>
+      <c r="J19" s="507"/>
+      <c r="K19" s="507"/>
+      <c r="L19" s="507"/>
+      <c r="M19" s="507"/>
+      <c r="N19" s="507"/>
+      <c r="O19" s="507"/>
+      <c r="P19" s="508"/>
+      <c r="Q19" s="509"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7118,21 +7118,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="420" t="str">
+      <c r="E20" s="434" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="506" t="s">
+      <c r="F20" s="412" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="420" t="s">
+      <c r="G20" s="434" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="499" t="str">
+      <c r="H20" s="426" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="499" t="str">
+      <c r="I20" s="426" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7168,11 +7168,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="421"/>
-      <c r="F21" s="507"/>
-      <c r="G21" s="421"/>
-      <c r="H21" s="500"/>
-      <c r="I21" s="500"/>
+      <c r="E21" s="435"/>
+      <c r="F21" s="413"/>
+      <c r="G21" s="435"/>
+      <c r="H21" s="427"/>
+      <c r="I21" s="427"/>
       <c r="J21" s="251"/>
       <c r="K21" s="251"/>
       <c r="L21" s="251" t="s">
@@ -7203,11 +7203,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="422"/>
-      <c r="F22" s="508"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="501"/>
-      <c r="I22" s="501"/>
+      <c r="E22" s="436"/>
+      <c r="F22" s="414"/>
+      <c r="G22" s="436"/>
+      <c r="H22" s="428"/>
+      <c r="I22" s="428"/>
       <c r="J22" s="242"/>
       <c r="K22" s="242"/>
       <c r="L22" s="242" t="s">
@@ -7238,21 +7238,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="423" t="str">
+      <c r="E23" s="437" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="509" t="s">
+      <c r="F23" s="415" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="423" t="s">
+      <c r="G23" s="437" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="502" t="str">
+      <c r="H23" s="429" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="502" t="str">
+      <c r="I23" s="429" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7288,11 +7288,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="424"/>
-      <c r="F24" s="510"/>
-      <c r="G24" s="424"/>
-      <c r="H24" s="503"/>
-      <c r="I24" s="503"/>
+      <c r="E24" s="438"/>
+      <c r="F24" s="416"/>
+      <c r="G24" s="438"/>
+      <c r="H24" s="430"/>
+      <c r="I24" s="430"/>
       <c r="J24" s="188" t="s">
         <v>648</v>
       </c>
@@ -7320,21 +7320,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="433" t="s">
+      <c r="E25" s="504" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="433"/>
-      <c r="G25" s="433"/>
-      <c r="H25" s="433"/>
-      <c r="I25" s="433"/>
-      <c r="J25" s="433"/>
-      <c r="K25" s="433"/>
-      <c r="L25" s="433"/>
-      <c r="M25" s="433"/>
-      <c r="N25" s="433"/>
-      <c r="O25" s="433"/>
-      <c r="P25" s="434"/>
-      <c r="Q25" s="435"/>
+      <c r="F25" s="504"/>
+      <c r="G25" s="504"/>
+      <c r="H25" s="504"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="504"/>
+      <c r="K25" s="504"/>
+      <c r="L25" s="504"/>
+      <c r="M25" s="504"/>
+      <c r="N25" s="504"/>
+      <c r="O25" s="504"/>
+      <c r="P25" s="505"/>
+      <c r="Q25" s="506"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7350,19 +7350,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="436"/>
-      <c r="J26" s="436"/>
-      <c r="K26" s="436"/>
-      <c r="L26" s="436"/>
-      <c r="M26" s="436"/>
-      <c r="N26" s="436"/>
-      <c r="O26" s="436"/>
-      <c r="P26" s="437"/>
-      <c r="Q26" s="438"/>
+      <c r="E26" s="507"/>
+      <c r="F26" s="507"/>
+      <c r="G26" s="507"/>
+      <c r="H26" s="507"/>
+      <c r="I26" s="507"/>
+      <c r="J26" s="507"/>
+      <c r="K26" s="507"/>
+      <c r="L26" s="507"/>
+      <c r="M26" s="507"/>
+      <c r="N26" s="507"/>
+      <c r="O26" s="507"/>
+      <c r="P26" s="508"/>
+      <c r="Q26" s="509"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7383,21 +7383,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="425" t="str">
+      <c r="E27" s="439" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="511" t="s">
+      <c r="F27" s="417" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="425" t="s">
+      <c r="G27" s="439" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="442" t="str">
+      <c r="H27" s="431" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="442" t="str">
+      <c r="I27" s="431" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7433,11 +7433,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="426"/>
-      <c r="F28" s="512"/>
-      <c r="G28" s="426"/>
-      <c r="H28" s="443"/>
-      <c r="I28" s="443"/>
+      <c r="E28" s="440"/>
+      <c r="F28" s="418"/>
+      <c r="G28" s="440"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="432"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7468,11 +7468,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="427"/>
-      <c r="F29" s="513"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="444"/>
-      <c r="I29" s="444"/>
+      <c r="E29" s="441"/>
+      <c r="F29" s="419"/>
+      <c r="G29" s="441"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -7505,15 +7505,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="428" t="s">
+      <c r="E30" s="442" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="514" t="s">
+      <c r="F30" s="420" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="428"/>
-      <c r="H30" s="496"/>
-      <c r="I30" s="496"/>
+      <c r="G30" s="442"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
       <c r="J30" s="191"/>
       <c r="K30" s="191"/>
       <c r="L30" s="191"/>
@@ -7542,11 +7542,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="429"/>
-      <c r="F31" s="515"/>
-      <c r="G31" s="429"/>
-      <c r="H31" s="497"/>
-      <c r="I31" s="497"/>
+      <c r="E31" s="443"/>
+      <c r="F31" s="421"/>
+      <c r="G31" s="443"/>
+      <c r="H31" s="424"/>
+      <c r="I31" s="424"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194"/>
       <c r="L31" s="194"/>
@@ -7575,11 +7575,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="430"/>
-      <c r="F32" s="516"/>
-      <c r="G32" s="430"/>
-      <c r="H32" s="498"/>
-      <c r="I32" s="498"/>
+      <c r="E32" s="444"/>
+      <c r="F32" s="422"/>
+      <c r="G32" s="444"/>
+      <c r="H32" s="425"/>
+      <c r="I32" s="425"/>
       <c r="J32" s="197"/>
       <c r="K32" s="197"/>
       <c r="L32" s="197"/>
@@ -7605,21 +7605,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="410" t="s">
+      <c r="E33" s="494" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="410"/>
-      <c r="G33" s="410"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="410"/>
-      <c r="J33" s="410"/>
-      <c r="K33" s="410"/>
-      <c r="L33" s="410"/>
-      <c r="M33" s="410"/>
-      <c r="N33" s="410"/>
-      <c r="O33" s="410"/>
-      <c r="P33" s="411"/>
-      <c r="Q33" s="412"/>
+      <c r="F33" s="494"/>
+      <c r="G33" s="494"/>
+      <c r="H33" s="494"/>
+      <c r="I33" s="494"/>
+      <c r="J33" s="494"/>
+      <c r="K33" s="494"/>
+      <c r="L33" s="494"/>
+      <c r="M33" s="494"/>
+      <c r="N33" s="494"/>
+      <c r="O33" s="494"/>
+      <c r="P33" s="495"/>
+      <c r="Q33" s="496"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -7635,19 +7635,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="413"/>
-      <c r="F34" s="413"/>
-      <c r="G34" s="413"/>
-      <c r="H34" s="413"/>
-      <c r="I34" s="413"/>
-      <c r="J34" s="413"/>
-      <c r="K34" s="413"/>
-      <c r="L34" s="413"/>
-      <c r="M34" s="413"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="415"/>
+      <c r="E34" s="497"/>
+      <c r="F34" s="497"/>
+      <c r="G34" s="497"/>
+      <c r="H34" s="497"/>
+      <c r="I34" s="497"/>
+      <c r="J34" s="497"/>
+      <c r="K34" s="497"/>
+      <c r="L34" s="497"/>
+      <c r="M34" s="497"/>
+      <c r="N34" s="497"/>
+      <c r="O34" s="497"/>
+      <c r="P34" s="498"/>
+      <c r="Q34" s="499"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8137,23 +8137,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E18:Q19"/>
+    <mergeCell ref="E25:Q26"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F2:F4"/>
@@ -8170,27 +8174,23 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E18:Q19"/>
-    <mergeCell ref="E25:Q26"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8203,8 +8203,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8214,38 +8214,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="542" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="521" t="s">
+      <c r="B1" s="543"/>
+      <c r="C1" s="543"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="542" t="s">
         <v>718</v>
       </c>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
     </row>
     <row r="2" spans="1:10" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="532" t="str">
+      <c r="A2" s="544" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="534" t="str">
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="546" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="536"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="548"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="395"/>
@@ -8255,116 +8255,116 @@
       <c r="J3" s="395"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="542" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="522"/>
-      <c r="C4" s="522"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="521" t="s">
+      <c r="B4" s="543"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="555"/>
+      <c r="E4" s="542" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="522"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="543"/>
+      <c r="G4" s="555"/>
+      <c r="H4" s="542" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="522"/>
-      <c r="J4" s="523"/>
+      <c r="I4" s="543"/>
+      <c r="J4" s="555"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="549" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="539"/>
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="551"/>
       <c r="E5" s="398" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="517" t="s">
+      <c r="F5" s="556" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="518"/>
+      <c r="G5" s="557"/>
       <c r="H5" s="399" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="517" t="s">
+      <c r="I5" s="556" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="518"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="537"/>
-      <c r="B6" s="538"/>
-      <c r="C6" s="538"/>
-      <c r="D6" s="539"/>
+      <c r="J5" s="557"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="549"/>
+      <c r="B6" s="550"/>
+      <c r="C6" s="550"/>
+      <c r="D6" s="551"/>
       <c r="E6" s="398"/>
-      <c r="F6" s="517"/>
-      <c r="G6" s="518"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="557"/>
       <c r="H6" s="399" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="517" t="s">
+      <c r="I6" s="556" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="518"/>
+      <c r="J6" s="557"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="537"/>
-      <c r="B7" s="538"/>
-      <c r="C7" s="538"/>
-      <c r="D7" s="539"/>
+      <c r="A7" s="549"/>
+      <c r="B7" s="550"/>
+      <c r="C7" s="550"/>
+      <c r="D7" s="551"/>
       <c r="E7" s="398"/>
-      <c r="F7" s="517"/>
-      <c r="G7" s="518"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="557"/>
       <c r="H7" s="399" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="517" t="s">
+      <c r="I7" s="556" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="518"/>
+      <c r="J7" s="557"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="537"/>
-      <c r="B8" s="538"/>
-      <c r="C8" s="538"/>
-      <c r="D8" s="539"/>
+      <c r="A8" s="549"/>
+      <c r="B8" s="550"/>
+      <c r="C8" s="550"/>
+      <c r="D8" s="551"/>
       <c r="E8" s="398" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="517" t="s">
+      <c r="F8" s="556" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="518"/>
+      <c r="G8" s="557"/>
       <c r="H8" s="399" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="517" t="s">
+      <c r="I8" s="556" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="518"/>
+      <c r="J8" s="557"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="540"/>
-      <c r="B9" s="541"/>
-      <c r="C9" s="541"/>
-      <c r="D9" s="542"/>
+      <c r="A9" s="552"/>
+      <c r="B9" s="553"/>
+      <c r="C9" s="553"/>
+      <c r="D9" s="554"/>
       <c r="E9" s="400" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="519" t="s">
+      <c r="F9" s="558" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="520"/>
+      <c r="G9" s="559"/>
       <c r="H9" s="400" t="s">
         <v>724</v>
       </c>
-      <c r="I9" s="519" t="s">
+      <c r="I9" s="558" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="520"/>
+      <c r="J9" s="559"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="401"/>
@@ -8374,102 +8374,102 @@
       <c r="J10" s="401"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="542" t="s">
         <v>712</v>
       </c>
-      <c r="B11" s="522"/>
-      <c r="C11" s="522"/>
-      <c r="D11" s="522"/>
-      <c r="E11" s="522"/>
-      <c r="F11" s="521" t="s">
+      <c r="B11" s="543"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="543"/>
+      <c r="E11" s="543"/>
+      <c r="F11" s="542" t="s">
         <v>723</v>
       </c>
-      <c r="G11" s="522"/>
-      <c r="H11" s="522"/>
-      <c r="I11" s="522"/>
-      <c r="J11" s="523"/>
+      <c r="G11" s="543"/>
+      <c r="H11" s="543"/>
+      <c r="I11" s="543"/>
+      <c r="J11" s="555"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="529" t="s">
+      <c r="A12" s="565" t="s">
         <v>726</v>
       </c>
-      <c r="B12" s="530"/>
-      <c r="C12" s="530"/>
-      <c r="D12" s="530"/>
-      <c r="E12" s="530"/>
-      <c r="F12" s="529" t="s">
+      <c r="B12" s="566"/>
+      <c r="C12" s="566"/>
+      <c r="D12" s="566"/>
+      <c r="E12" s="566"/>
+      <c r="F12" s="565" t="s">
         <v>727</v>
       </c>
-      <c r="G12" s="530"/>
-      <c r="H12" s="530"/>
-      <c r="I12" s="530"/>
-      <c r="J12" s="531"/>
+      <c r="G12" s="566"/>
+      <c r="H12" s="566"/>
+      <c r="I12" s="566"/>
+      <c r="J12" s="567"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="397"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="521" t="s">
+      <c r="A14" s="542" t="s">
         <v>728</v>
       </c>
-      <c r="B14" s="522"/>
-      <c r="C14" s="522"/>
-      <c r="D14" s="522"/>
-      <c r="E14" s="522"/>
-      <c r="F14" s="521" t="s">
+      <c r="B14" s="543"/>
+      <c r="C14" s="543"/>
+      <c r="D14" s="543"/>
+      <c r="E14" s="543"/>
+      <c r="F14" s="542" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="522"/>
-      <c r="H14" s="522"/>
-      <c r="I14" s="522"/>
-      <c r="J14" s="523"/>
+      <c r="G14" s="543"/>
+      <c r="H14" s="543"/>
+      <c r="I14" s="543"/>
+      <c r="J14" s="555"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="524" t="s">
+      <c r="A15" s="560" t="s">
         <v>729</v>
       </c>
-      <c r="B15" s="525"/>
-      <c r="C15" s="525"/>
-      <c r="D15" s="525"/>
-      <c r="E15" s="525"/>
-      <c r="F15" s="526" t="s">
+      <c r="B15" s="561"/>
+      <c r="C15" s="561"/>
+      <c r="D15" s="561"/>
+      <c r="E15" s="561"/>
+      <c r="F15" s="562" t="s">
         <v>730</v>
       </c>
-      <c r="G15" s="527"/>
-      <c r="H15" s="527"/>
-      <c r="I15" s="527"/>
-      <c r="J15" s="528"/>
+      <c r="G15" s="563"/>
+      <c r="H15" s="563"/>
+      <c r="I15" s="563"/>
+      <c r="J15" s="564"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="549" t="s">
+      <c r="A17" s="535" t="s">
         <v>713</v>
       </c>
-      <c r="B17" s="550"/>
-      <c r="C17" s="550"/>
-      <c r="D17" s="550"/>
-      <c r="E17" s="550"/>
-      <c r="F17" s="550"/>
-      <c r="G17" s="550"/>
-      <c r="H17" s="550"/>
-      <c r="I17" s="550"/>
-      <c r="J17" s="551"/>
+      <c r="B17" s="536"/>
+      <c r="C17" s="536"/>
+      <c r="D17" s="536"/>
+      <c r="E17" s="536"/>
+      <c r="F17" s="536"/>
+      <c r="G17" s="536"/>
+      <c r="H17" s="536"/>
+      <c r="I17" s="536"/>
+      <c r="J17" s="537"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="552" t="s">
+      <c r="A18" s="538" t="s">
         <v>731</v>
       </c>
-      <c r="B18" s="553"/>
-      <c r="C18" s="553"/>
-      <c r="D18" s="553"/>
-      <c r="E18" s="553"/>
-      <c r="F18" s="554" t="s">
+      <c r="B18" s="539"/>
+      <c r="C18" s="539"/>
+      <c r="D18" s="539"/>
+      <c r="E18" s="539"/>
+      <c r="F18" s="540" t="s">
         <v>732</v>
       </c>
-      <c r="G18" s="554"/>
-      <c r="H18" s="554"/>
-      <c r="I18" s="554"/>
-      <c r="J18" s="555"/>
+      <c r="G18" s="540"/>
+      <c r="H18" s="540"/>
+      <c r="I18" s="540"/>
+      <c r="J18" s="541"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="397"/>
@@ -8481,41 +8481,41 @@
       <c r="A20" s="404" t="s">
         <v>722</v>
       </c>
-      <c r="B20" s="543" t="s">
+      <c r="B20" s="529" t="s">
         <v>719</v>
       </c>
-      <c r="C20" s="544"/>
-      <c r="D20" s="545"/>
-      <c r="E20" s="543" t="s">
+      <c r="C20" s="530"/>
+      <c r="D20" s="531"/>
+      <c r="E20" s="529" t="s">
         <v>720</v>
       </c>
-      <c r="F20" s="544"/>
-      <c r="G20" s="545"/>
-      <c r="H20" s="543" t="s">
+      <c r="F20" s="530"/>
+      <c r="G20" s="531"/>
+      <c r="H20" s="529" t="s">
         <v>721</v>
       </c>
-      <c r="I20" s="544"/>
-      <c r="J20" s="545"/>
+      <c r="I20" s="530"/>
+      <c r="J20" s="531"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="402" t="s">
         <v>714</v>
       </c>
-      <c r="B21" s="546" t="s">
+      <c r="B21" s="532" t="s">
         <v>733</v>
       </c>
-      <c r="C21" s="547"/>
-      <c r="D21" s="548"/>
-      <c r="E21" s="546" t="s">
+      <c r="C21" s="533"/>
+      <c r="D21" s="534"/>
+      <c r="E21" s="532" t="s">
         <v>734</v>
       </c>
-      <c r="F21" s="547"/>
-      <c r="G21" s="548"/>
-      <c r="H21" s="546" t="s">
+      <c r="F21" s="533"/>
+      <c r="G21" s="534"/>
+      <c r="H21" s="532" t="s">
         <v>735</v>
       </c>
-      <c r="I21" s="547"/>
-      <c r="J21" s="548"/>
+      <c r="I21" s="533"/>
+      <c r="J21" s="534"/>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="402" t="s">
@@ -8637,47 +8637,47 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="402"/>
-      <c r="B27" s="562"/>
-      <c r="C27" s="563"/>
-      <c r="D27" s="564"/>
-      <c r="E27" s="562"/>
-      <c r="F27" s="563"/>
-      <c r="G27" s="564"/>
-      <c r="H27" s="562"/>
-      <c r="I27" s="563"/>
-      <c r="J27" s="564"/>
+      <c r="B27" s="523"/>
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="525"/>
+      <c r="H27" s="523"/>
+      <c r="I27" s="524"/>
+      <c r="J27" s="525"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="402" t="s">
         <v>716</v>
       </c>
-      <c r="B28" s="562"/>
-      <c r="C28" s="563"/>
-      <c r="D28" s="564"/>
-      <c r="E28" s="562"/>
-      <c r="F28" s="563"/>
-      <c r="G28" s="564"/>
-      <c r="H28" s="565"/>
-      <c r="I28" s="566"/>
-      <c r="J28" s="567"/>
+      <c r="B28" s="523"/>
+      <c r="C28" s="524"/>
+      <c r="D28" s="525"/>
+      <c r="E28" s="523"/>
+      <c r="F28" s="524"/>
+      <c r="G28" s="525"/>
+      <c r="H28" s="526"/>
+      <c r="I28" s="527"/>
+      <c r="J28" s="528"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="403" t="s">
         <v>750</v>
       </c>
-      <c r="B29" s="556" t="s">
+      <c r="B29" s="517" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="557"/>
-      <c r="D29" s="558"/>
-      <c r="E29" s="556" t="s">
+      <c r="C29" s="518"/>
+      <c r="D29" s="519"/>
+      <c r="E29" s="517" t="s">
         <v>752</v>
       </c>
-      <c r="F29" s="557"/>
-      <c r="G29" s="558"/>
-      <c r="H29" s="559"/>
-      <c r="I29" s="560"/>
-      <c r="J29" s="561"/>
+      <c r="F29" s="518"/>
+      <c r="G29" s="519"/>
+      <c r="H29" s="520"/>
+      <c r="I29" s="521"/>
+      <c r="J29" s="522"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8689,24 +8689,16 @@
     <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -8723,16 +8715,24 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10046,10 +10046,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="603" t="s">
+      <c r="G10" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="604" t="s">
+      <c r="H10" s="598" t="s">
         <v>430</v>
       </c>
     </row>
@@ -10069,8 +10069,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="603"/>
-      <c r="H11" s="604"/>
+      <c r="G11" s="597"/>
+      <c r="H11" s="598"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -10088,8 +10088,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="603"/>
-      <c r="H12" s="604"/>
+      <c r="G12" s="597"/>
+      <c r="H12" s="598"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -10107,8 +10107,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="603"/>
-      <c r="H13" s="604"/>
+      <c r="G13" s="597"/>
+      <c r="H13" s="598"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -10126,10 +10126,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="607" t="s">
+      <c r="G14" s="601" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="607" t="s">
+      <c r="H14" s="601" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10149,8 +10149,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="607"/>
-      <c r="H15" s="607"/>
+      <c r="G15" s="601"/>
+      <c r="H15" s="601"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -10262,10 +10262,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="596" t="s">
+      <c r="G22" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="597" t="s">
+      <c r="H22" s="603" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10280,8 +10280,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="596"/>
-      <c r="H23" s="597"/>
+      <c r="G23" s="595"/>
+      <c r="H23" s="603"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -10294,7 +10294,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="596"/>
+      <c r="G24" s="595"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10308,7 +10308,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="596"/>
+      <c r="G25" s="595"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10327,7 +10327,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="596"/>
+      <c r="G26" s="595"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="596"/>
+      <c r="G27" s="595"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="596"/>
+      <c r="G28" s="595"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10378,7 +10378,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="596"/>
+      <c r="G29" s="595"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10387,7 +10387,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="596"/>
+      <c r="G30" s="595"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="596"/>
+      <c r="G31" s="595"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="596"/>
+      <c r="G32" s="595"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -10474,10 +10474,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="605" t="s">
+      <c r="G35" s="599" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="606" t="s">
+      <c r="H35" s="600" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10496,8 +10496,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="605"/>
-      <c r="H36" s="606"/>
+      <c r="G36" s="599"/>
+      <c r="H36" s="600"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -10514,8 +10514,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="605"/>
-      <c r="H37" s="606"/>
+      <c r="G37" s="599"/>
+      <c r="H37" s="600"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -10528,8 +10528,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="605"/>
-      <c r="H38" s="606"/>
+      <c r="G38" s="599"/>
+      <c r="H38" s="600"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -10542,8 +10542,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="605"/>
-      <c r="H39" s="606"/>
+      <c r="G39" s="599"/>
+      <c r="H39" s="600"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="601"/>
+      <c r="H44" s="607"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -10639,10 +10639,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="599" t="s">
+      <c r="G45" s="605" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="601"/>
+      <c r="H45" s="607"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -10660,7 +10660,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="599"/>
+      <c r="G46" s="605"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10700,8 +10700,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="598"/>
-      <c r="G49" s="598" t="s">
+      <c r="F49" s="604"/>
+      <c r="G49" s="604" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -10716,8 +10716,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="598"/>
-      <c r="G50" s="598"/>
+      <c r="F50" s="604"/>
+      <c r="G50" s="604"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -10730,8 +10730,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="598"/>
-      <c r="G51" s="598"/>
+      <c r="F51" s="604"/>
+      <c r="G51" s="604"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10792,10 +10792,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="608" t="s">
+      <c r="G55" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="600" t="s">
+      <c r="H55" s="606" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10810,8 +10810,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="608"/>
-      <c r="H56" s="600"/>
+      <c r="G56" s="596"/>
+      <c r="H56" s="606"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -10824,8 +10824,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="608"/>
-      <c r="H57" s="600"/>
+      <c r="G57" s="596"/>
+      <c r="H57" s="606"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -10843,8 +10843,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="608"/>
-      <c r="H58" s="600"/>
+      <c r="G58" s="596"/>
+      <c r="H58" s="606"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -11010,10 +11010,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="596" t="s">
+      <c r="G72" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="602"/>
+      <c r="H72" s="608"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -11023,8 +11023,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="596"/>
-      <c r="H73" s="602"/>
+      <c r="G73" s="595"/>
+      <c r="H73" s="608"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -11034,8 +11034,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="596"/>
-      <c r="H74" s="602"/>
+      <c r="G74" s="595"/>
+      <c r="H74" s="608"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -11045,8 +11045,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="596"/>
-      <c r="H75" s="602"/>
+      <c r="G75" s="595"/>
+      <c r="H75" s="608"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -11056,8 +11056,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="596"/>
-      <c r="H76" s="602"/>
+      <c r="G76" s="595"/>
+      <c r="H76" s="608"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -11195,10 +11195,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="596" t="s">
+      <c r="G94" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="595" t="s">
+      <c r="H94" s="602" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11209,8 +11209,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="596"/>
-      <c r="H95" s="595"/>
+      <c r="G95" s="595"/>
+      <c r="H95" s="602"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -11219,8 +11219,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="596"/>
-      <c r="H96" s="595"/>
+      <c r="G96" s="595"/>
+      <c r="H96" s="602"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -11235,7 +11235,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="596" t="s">
+      <c r="G97" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11246,7 +11246,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="596"/>
+      <c r="G98" s="595"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -11255,7 +11255,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="596"/>
+      <c r="G99" s="595"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -11270,7 +11270,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="596" t="s">
+      <c r="G100" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="596"/>
+      <c r="G101" s="595"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -11292,7 +11292,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="596"/>
+      <c r="G102" s="595"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -11302,7 +11302,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="596"/>
+      <c r="G103" s="595"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -11361,7 +11361,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="596" t="s">
+      <c r="G117" s="595" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -11373,7 +11373,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="596"/>
+      <c r="G118" s="595"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -11389,7 +11389,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="596" t="s">
+      <c r="G119" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11400,7 +11400,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="596"/>
+      <c r="G120" s="595"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -11434,7 +11434,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="596" t="s">
+      <c r="G126" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="596"/>
+      <c r="G127" s="595"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -11471,7 +11471,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="596" t="s">
+      <c r="G130" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="596"/>
+      <c r="G131" s="595"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -11507,7 +11507,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="596" t="s">
+      <c r="G134" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="596"/>
+      <c r="G135" s="595"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -11527,7 +11527,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="596"/>
+      <c r="G136" s="595"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -11558,13 +11558,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="596" t="s">
+      <c r="G140" s="595" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="596"/>
+      <c r="G141" s="595"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="596"/>
+      <c r="G142" s="595"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -11600,7 +11600,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="596"/>
+      <c r="G143" s="595"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -11617,11 +11617,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="596"/>
+      <c r="G144" s="595"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="596"/>
+      <c r="G145" s="595"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -11673,7 +11673,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="596" t="s">
+      <c r="G152" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11684,7 +11684,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="596"/>
+      <c r="G153" s="595"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -11695,22 +11695,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -11722,6 +11706,22 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11847,10 +11847,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="596" t="s">
+      <c r="G13" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="602"/>
+      <c r="H13" s="608"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -11860,8 +11860,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="596"/>
-      <c r="H14" s="602"/>
+      <c r="G14" s="595"/>
+      <c r="H14" s="608"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -11871,8 +11871,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="596"/>
-      <c r="H15" s="602"/>
+      <c r="G15" s="595"/>
+      <c r="H15" s="608"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -11882,8 +11882,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="596"/>
-      <c r="H16" s="602"/>
+      <c r="G16" s="595"/>
+      <c r="H16" s="608"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -11893,8 +11893,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="596"/>
-      <c r="H17" s="602"/>
+      <c r="G17" s="595"/>
+      <c r="H17" s="608"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -11917,10 +11917,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="596" t="s">
+      <c r="G20" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="595" t="s">
+      <c r="H20" s="602" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11931,8 +11931,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="596"/>
-      <c r="H21" s="595"/>
+      <c r="G21" s="595"/>
+      <c r="H21" s="602"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -11941,8 +11941,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="596"/>
-      <c r="H22" s="595"/>
+      <c r="G22" s="595"/>
+      <c r="H22" s="602"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -11957,7 +11957,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="596" t="s">
+      <c r="G23" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="596"/>
+      <c r="G24" s="595"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -11977,7 +11977,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="596"/>
+      <c r="G25" s="595"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -11992,7 +11992,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="596" t="s">
+      <c r="G26" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="596"/>
+      <c r="G27" s="595"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -12014,7 +12014,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="596"/>
+      <c r="G28" s="595"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -12024,7 +12024,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="596"/>
+      <c r="G29" s="595"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -12077,10 +12077,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="596" t="s">
+      <c r="G37" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="609" t="s">
+      <c r="H37" s="610" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12097,8 +12097,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="596"/>
-      <c r="H38" s="609"/>
+      <c r="G38" s="595"/>
+      <c r="H38" s="610"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -12113,8 +12113,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="596"/>
-      <c r="H39" s="609"/>
+      <c r="G39" s="595"/>
+      <c r="H39" s="610"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -12124,8 +12124,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="596"/>
-      <c r="H40" s="609"/>
+      <c r="G40" s="595"/>
+      <c r="H40" s="610"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -12135,8 +12135,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="596"/>
-      <c r="H41" s="609"/>
+      <c r="G41" s="595"/>
+      <c r="H41" s="610"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -12178,7 +12178,7 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="596" t="s">
+      <c r="G47" s="595" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="27"/>
@@ -12191,7 +12191,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="596"/>
+      <c r="G48" s="595"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -12202,7 +12202,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="596"/>
+      <c r="G49" s="595"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -12230,10 +12230,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="596" t="s">
+      <c r="G54" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="595" t="s">
+      <c r="H54" s="602" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12244,8 +12244,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="596"/>
-      <c r="H55" s="595"/>
+      <c r="G55" s="595"/>
+      <c r="H55" s="602"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -12254,7 +12254,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="596"/>
+      <c r="G56" s="595"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -12264,7 +12264,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="596"/>
+      <c r="G57" s="595"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="596"/>
+      <c r="G58" s="595"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12298,7 +12298,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="596"/>
+      <c r="G59" s="595"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -12318,8 +12318,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="596"/>
-      <c r="G61" s="596" t="s">
+      <c r="F61" s="595"/>
+      <c r="G61" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12330,8 +12330,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="596"/>
-      <c r="G62" s="596"/>
+      <c r="F62" s="595"/>
+      <c r="G62" s="595"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -12340,8 +12340,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="596"/>
-      <c r="G63" s="596"/>
+      <c r="F63" s="595"/>
+      <c r="G63" s="595"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -12406,7 +12406,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="596" t="s">
+      <c r="G68" s="595" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -12418,7 +12418,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="596"/>
+      <c r="G69" s="595"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -12434,7 +12434,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="596" t="s">
+      <c r="G70" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="596"/>
+      <c r="G71" s="595"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -12472,10 +12472,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="596" t="s">
+      <c r="G75" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="602" t="s">
+      <c r="H75" s="608" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12493,8 +12493,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="596"/>
-      <c r="H76" s="602"/>
+      <c r="G76" s="595"/>
+      <c r="H76" s="608"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -12510,8 +12510,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="596"/>
-      <c r="H77" s="602"/>
+      <c r="G77" s="595"/>
+      <c r="H77" s="608"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -12546,10 +12546,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="596" t="s">
+      <c r="G81" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="595" t="s">
+      <c r="H81" s="602" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12567,8 +12567,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="596"/>
-      <c r="H82" s="595"/>
+      <c r="G82" s="595"/>
+      <c r="H82" s="602"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -12584,8 +12584,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="596"/>
-      <c r="H83" s="595"/>
+      <c r="G83" s="595"/>
+      <c r="H83" s="602"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -12601,8 +12601,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="596"/>
-      <c r="H84" s="595"/>
+      <c r="G84" s="595"/>
+      <c r="H84" s="602"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -12618,10 +12618,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="602" t="s">
+      <c r="G85" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="602" t="s">
+      <c r="H85" s="608" t="s">
         <v>446</v>
       </c>
     </row>
@@ -12639,8 +12639,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="602"/>
-      <c r="H86" s="602"/>
+      <c r="G86" s="608"/>
+      <c r="H86" s="608"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -12672,10 +12672,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="596" t="s">
+      <c r="F89" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="610" t="s">
+      <c r="H89" s="609" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12686,8 +12686,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="596"/>
-      <c r="H90" s="610"/>
+      <c r="F90" s="595"/>
+      <c r="H90" s="609"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -12697,8 +12697,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="596"/>
-      <c r="H91" s="610"/>
+      <c r="F91" s="595"/>
+      <c r="H91" s="609"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -12714,8 +12714,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="596"/>
-      <c r="H92" s="610"/>
+      <c r="F92" s="595"/>
+      <c r="H92" s="609"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -12731,10 +12731,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="596" t="s">
+      <c r="G93" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="602" t="s">
+      <c r="H93" s="608" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12751,8 +12751,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="596"/>
-      <c r="H94" s="602"/>
+      <c r="G94" s="595"/>
+      <c r="H94" s="608"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -12761,7 +12761,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="596" t="s">
+      <c r="G95" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="596"/>
+      <c r="G96" s="595"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -12802,7 +12802,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="596" t="s">
+      <c r="G99" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="596"/>
+      <c r="G100" s="595"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -12839,7 +12839,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="596" t="s">
+      <c r="G103" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="596"/>
+      <c r="G104" s="595"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="596" t="s">
+      <c r="G107" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="596"/>
+      <c r="G108" s="595"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -12895,7 +12895,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="596"/>
+      <c r="G109" s="595"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -12912,7 +12912,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="596" t="s">
+      <c r="G110" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="596"/>
+      <c r="G111" s="595"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -12937,7 +12937,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="596"/>
+      <c r="G112" s="595"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -12954,7 +12954,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="596"/>
+      <c r="G113" s="595"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -13001,7 +13001,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="596" t="s">
+      <c r="G117" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="596"/>
+      <c r="G118" s="595"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -13039,7 +13039,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="596"/>
+      <c r="G119" s="595"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="596"/>
+      <c r="G120" s="595"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -13073,7 +13073,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="596"/>
+      <c r="G121" s="595"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -13090,7 +13090,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="596"/>
+      <c r="G122" s="595"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -13105,7 +13105,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="596"/>
+      <c r="G123" s="595"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -13210,7 +13210,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="596" t="s">
+      <c r="G133" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13221,36 +13221,13 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="596"/>
+      <c r="G134" s="595"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -13260,6 +13237,29 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13304,10 +13304,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="612" t="s">
+      <c r="B6" s="611" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="595" t="s">
+      <c r="C6" s="602" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -13316,84 +13316,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="596" t="s">
+      <c r="F6" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="595" t="s">
+      <c r="H6" s="602" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="612"/>
-      <c r="C7" s="595"/>
+      <c r="B7" s="611"/>
+      <c r="C7" s="602"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="596"/>
-      <c r="H7" s="595"/>
+      <c r="F7" s="595"/>
+      <c r="H7" s="602"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="612"/>
-      <c r="C8" s="595"/>
+      <c r="B8" s="611"/>
+      <c r="C8" s="602"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="596"/>
-      <c r="H8" s="595"/>
+      <c r="F8" s="595"/>
+      <c r="H8" s="602"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="612"/>
-      <c r="C9" s="595"/>
+      <c r="B9" s="611"/>
+      <c r="C9" s="602"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="596"/>
-      <c r="H9" s="595"/>
+      <c r="F9" s="595"/>
+      <c r="H9" s="602"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="612"/>
-      <c r="C10" s="595"/>
+      <c r="B10" s="611"/>
+      <c r="C10" s="602"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="596"/>
-      <c r="H10" s="595"/>
+      <c r="F10" s="595"/>
+      <c r="H10" s="602"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="612"/>
-      <c r="C11" s="595"/>
+      <c r="B11" s="611"/>
+      <c r="C11" s="602"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="596"/>
-      <c r="H11" s="595"/>
+      <c r="F11" s="595"/>
+      <c r="H11" s="602"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="612"/>
-      <c r="C12" s="595"/>
+      <c r="B12" s="611"/>
+      <c r="C12" s="602"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="596"/>
-      <c r="H12" s="595"/>
+      <c r="F12" s="595"/>
+      <c r="H12" s="602"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -13434,7 +13434,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="596" t="s">
+      <c r="F16" s="595" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="596"/>
+      <c r="F17" s="595"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -13493,7 +13493,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="596" t="s">
+      <c r="F21" s="595" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -13513,7 +13513,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="596"/>
+      <c r="F22" s="595"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -13528,7 +13528,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="596"/>
+      <c r="F23" s="595"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -13543,7 +13543,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="596"/>
+      <c r="F24" s="595"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -13558,7 +13558,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="596"/>
+      <c r="F25" s="595"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -13567,7 +13567,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="596"/>
+      <c r="F26" s="595"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -13598,10 +13598,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="596" t="s">
+      <c r="F30" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="602" t="s">
+      <c r="H30" s="608" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13618,8 +13618,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="596"/>
-      <c r="H31" s="602"/>
+      <c r="F31" s="595"/>
+      <c r="H31" s="608"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -13634,8 +13634,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="596"/>
-      <c r="H32" s="602"/>
+      <c r="F32" s="595"/>
+      <c r="H32" s="608"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -13644,8 +13644,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="596"/>
-      <c r="H33" s="602"/>
+      <c r="F33" s="595"/>
+      <c r="H33" s="608"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -13654,10 +13654,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="596" t="s">
+      <c r="G34" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="602"/>
+      <c r="H34" s="608"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -13666,8 +13666,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="596"/>
-      <c r="H35" s="602"/>
+      <c r="G35" s="595"/>
+      <c r="H35" s="608"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -13676,8 +13676,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="596"/>
-      <c r="H36" s="602"/>
+      <c r="G36" s="595"/>
+      <c r="H36" s="608"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -13692,10 +13692,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="596" t="s">
+      <c r="F37" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="602" t="s">
+      <c r="H37" s="608" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13706,8 +13706,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="596"/>
-      <c r="H38" s="602"/>
+      <c r="F38" s="595"/>
+      <c r="H38" s="608"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -13716,8 +13716,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="596"/>
-      <c r="H39" s="602"/>
+      <c r="F39" s="595"/>
+      <c r="H39" s="608"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -13732,10 +13732,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="596" t="s">
+      <c r="G40" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="602"/>
+      <c r="H40" s="608"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -13745,8 +13745,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="596"/>
-      <c r="H41" s="602"/>
+      <c r="G41" s="595"/>
+      <c r="H41" s="608"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -13756,8 +13756,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="596"/>
-      <c r="H42" s="602"/>
+      <c r="G42" s="595"/>
+      <c r="H42" s="608"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -13767,8 +13767,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="596"/>
-      <c r="H43" s="602"/>
+      <c r="G43" s="595"/>
+      <c r="H43" s="608"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -13778,8 +13778,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="596"/>
-      <c r="H44" s="602"/>
+      <c r="G44" s="595"/>
+      <c r="H44" s="608"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -13802,10 +13802,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="596" t="s">
+      <c r="G47" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="595" t="s">
+      <c r="H47" s="602" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13816,8 +13816,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="596"/>
-      <c r="H48" s="595"/>
+      <c r="G48" s="595"/>
+      <c r="H48" s="602"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -13826,8 +13826,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="596"/>
-      <c r="H49" s="595"/>
+      <c r="G49" s="595"/>
+      <c r="H49" s="602"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -13842,7 +13842,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="596" t="s">
+      <c r="G50" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="596"/>
+      <c r="G51" s="595"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -13862,7 +13862,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="596"/>
+      <c r="G52" s="595"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -13878,7 +13878,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="596" t="s">
+      <c r="G53" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13891,7 +13891,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="596"/>
+      <c r="G54" s="595"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -13902,7 +13902,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="596"/>
+      <c r="G55" s="595"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -13913,7 +13913,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="596"/>
+      <c r="G56" s="595"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -14034,10 +14034,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="596" t="s">
+      <c r="G69" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="609" t="s">
+      <c r="H69" s="610" t="s">
         <v>89</v>
       </c>
     </row>
@@ -14054,8 +14054,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="596"/>
-      <c r="H70" s="609"/>
+      <c r="G70" s="595"/>
+      <c r="H70" s="610"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -14070,8 +14070,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="596"/>
-      <c r="H71" s="609"/>
+      <c r="G71" s="595"/>
+      <c r="H71" s="610"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -14081,8 +14081,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="596"/>
-      <c r="H72" s="609"/>
+      <c r="G72" s="595"/>
+      <c r="H72" s="610"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -14092,8 +14092,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="596"/>
-      <c r="H73" s="609"/>
+      <c r="G73" s="595"/>
+      <c r="H73" s="610"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -14123,7 +14123,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="602" t="s">
+      <c r="H78" s="608" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14135,10 +14135,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="596" t="s">
+      <c r="F79" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="602"/>
+      <c r="H79" s="608"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -14148,8 +14148,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="596"/>
-      <c r="H80" s="602"/>
+      <c r="F80" s="595"/>
+      <c r="H80" s="608"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -14159,7 +14159,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="596" t="s">
+      <c r="G81" s="595" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -14172,7 +14172,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="596"/>
+      <c r="G82" s="595"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -14183,7 +14183,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="596"/>
+      <c r="G83" s="595"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14199,10 +14199,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="596" t="s">
+      <c r="F85" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="611" t="s">
+      <c r="H85" s="612" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14214,8 +14214,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="596"/>
-      <c r="H86" s="611"/>
+      <c r="F86" s="595"/>
+      <c r="H86" s="612"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -14225,8 +14225,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="596"/>
-      <c r="H87" s="611"/>
+      <c r="F87" s="595"/>
+      <c r="H87" s="612"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -14236,8 +14236,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="596"/>
-      <c r="H88" s="611"/>
+      <c r="F88" s="595"/>
+      <c r="H88" s="612"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -14255,7 +14255,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="602" t="s">
+      <c r="H90" s="608" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14272,10 +14272,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="596" t="s">
+      <c r="F91" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="602"/>
+      <c r="H91" s="608"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -14285,8 +14285,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="596"/>
-      <c r="H92" s="602"/>
+      <c r="F92" s="595"/>
+      <c r="H92" s="608"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -14304,7 +14304,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="602"/>
+      <c r="H93" s="608"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -14322,7 +14322,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="602"/>
+      <c r="H94" s="608"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -14337,7 +14337,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="596" t="s">
+      <c r="F96" s="595" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14352,7 +14352,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="596"/>
+      <c r="F97" s="595"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -14361,7 +14361,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="596"/>
+      <c r="F98" s="595"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -14376,7 +14376,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="596" t="s">
+      <c r="F99" s="595" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="596"/>
+      <c r="F100" s="595"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -14405,10 +14405,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="596" t="s">
+      <c r="G101" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="595" t="s">
+      <c r="H101" s="602" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14419,8 +14419,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="596"/>
-      <c r="H102" s="595"/>
+      <c r="G102" s="595"/>
+      <c r="H102" s="602"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -14429,7 +14429,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="596"/>
+      <c r="G103" s="595"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -14439,7 +14439,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="596"/>
+      <c r="G104" s="595"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14456,7 +14456,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="596"/>
+      <c r="G105" s="595"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14473,7 +14473,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="596"/>
+      <c r="G106" s="595"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -14493,7 +14493,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="596" t="s">
+      <c r="F108" s="595" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -14511,7 +14511,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="596"/>
+      <c r="F109" s="595"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -14521,7 +14521,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="596"/>
+      <c r="F110" s="595"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -14531,7 +14531,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="596"/>
+      <c r="F111" s="595"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -14541,7 +14541,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="596"/>
+      <c r="F112" s="595"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -14550,7 +14550,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="596"/>
+      <c r="F113" s="595"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -14565,10 +14565,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="596" t="s">
+      <c r="F114" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="595" t="s">
+      <c r="H114" s="602" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14585,8 +14585,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="596"/>
-      <c r="H115" s="595"/>
+      <c r="F115" s="595"/>
+      <c r="H115" s="602"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -14601,8 +14601,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="596"/>
-      <c r="H116" s="595"/>
+      <c r="F116" s="595"/>
+      <c r="H116" s="602"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -14617,8 +14617,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="596"/>
-      <c r="H117" s="595"/>
+      <c r="F117" s="595"/>
+      <c r="H117" s="602"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -14627,8 +14627,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="596"/>
-      <c r="H118" s="595"/>
+      <c r="F118" s="595"/>
+      <c r="H118" s="602"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -14637,8 +14637,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="596"/>
-      <c r="H119" s="595"/>
+      <c r="F119" s="595"/>
+      <c r="H119" s="602"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -14647,8 +14647,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="596"/>
-      <c r="H120" s="595"/>
+      <c r="F120" s="595"/>
+      <c r="H120" s="602"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -14657,8 +14657,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="596"/>
-      <c r="H121" s="595"/>
+      <c r="F121" s="595"/>
+      <c r="H121" s="602"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -14667,8 +14667,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="596"/>
-      <c r="H122" s="595"/>
+      <c r="F122" s="595"/>
+      <c r="H122" s="602"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -14684,8 +14684,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="596"/>
-      <c r="G123" s="596" t="s">
+      <c r="F123" s="595"/>
+      <c r="G123" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14696,8 +14696,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="596"/>
-      <c r="G124" s="596"/>
+      <c r="F124" s="595"/>
+      <c r="G124" s="595"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -14706,8 +14706,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="596"/>
-      <c r="G125" s="596"/>
+      <c r="F125" s="595"/>
+      <c r="G125" s="595"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -14716,10 +14716,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="596" t="s">
+      <c r="F126" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="602" t="s">
+      <c r="H126" s="608" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14737,8 +14737,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="596"/>
-      <c r="H127" s="602"/>
+      <c r="F127" s="595"/>
+      <c r="H127" s="608"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -14753,7 +14753,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="596"/>
+      <c r="F128" s="595"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -14762,7 +14762,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="596"/>
+      <c r="F129" s="595"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -14772,7 +14772,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="596"/>
+      <c r="F130" s="595"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -14781,7 +14781,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="596"/>
+      <c r="F131" s="595"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -14797,7 +14797,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="596" t="s">
+      <c r="F132" s="595" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14808,7 +14808,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="596"/>
+      <c r="F133" s="595"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -14895,7 +14895,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="596" t="s">
+      <c r="G139" s="595" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -14907,7 +14907,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="596"/>
+      <c r="G140" s="595"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -14923,7 +14923,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="596" t="s">
+      <c r="G141" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14934,7 +14934,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="596"/>
+      <c r="G142" s="595"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -14961,10 +14961,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="596" t="s">
+      <c r="G146" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="602" t="s">
+      <c r="H146" s="608" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14982,8 +14982,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="596"/>
-      <c r="H147" s="602"/>
+      <c r="G147" s="595"/>
+      <c r="H147" s="608"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -14999,8 +14999,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="596"/>
-      <c r="H148" s="602"/>
+      <c r="G148" s="595"/>
+      <c r="H148" s="608"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -15042,10 +15042,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="596" t="s">
+      <c r="F152" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="602" t="s">
+      <c r="H152" s="608" t="s">
         <v>417</v>
       </c>
     </row>
@@ -15062,8 +15062,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="596"/>
-      <c r="H153" s="602"/>
+      <c r="F153" s="595"/>
+      <c r="H153" s="608"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -15078,8 +15078,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="596"/>
-      <c r="H154" s="602"/>
+      <c r="F154" s="595"/>
+      <c r="H154" s="608"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -15090,10 +15090,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="596" t="s">
+      <c r="G155" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="595" t="s">
+      <c r="H155" s="602" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15112,8 +15112,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="596"/>
-      <c r="H156" s="595"/>
+      <c r="G156" s="595"/>
+      <c r="H156" s="602"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -15130,8 +15130,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="596"/>
-      <c r="H157" s="595"/>
+      <c r="G157" s="595"/>
+      <c r="H157" s="602"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -15148,8 +15148,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="596"/>
-      <c r="H158" s="595"/>
+      <c r="G158" s="595"/>
+      <c r="H158" s="602"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -15165,7 +15165,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="596" t="s">
+      <c r="F159" s="595" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -15185,7 +15185,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="596"/>
+      <c r="F160" s="595"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -15203,10 +15203,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="602" t="s">
+      <c r="G161" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="602" t="s">
+      <c r="H161" s="608" t="s">
         <v>446</v>
       </c>
     </row>
@@ -15225,8 +15225,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="602"/>
-      <c r="H162" s="602"/>
+      <c r="G162" s="608"/>
+      <c r="H162" s="608"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -15245,11 +15245,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="596" t="s">
+      <c r="F164" s="595" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="602" t="s">
+      <c r="H164" s="608" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15261,9 +15261,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="596"/>
+      <c r="F165" s="595"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="602"/>
+      <c r="H165" s="608"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -15273,9 +15273,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="596"/>
+      <c r="F166" s="595"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="602"/>
+      <c r="H166" s="608"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -15291,9 +15291,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="596"/>
+      <c r="F167" s="595"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="602"/>
+      <c r="H167" s="608"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -15308,8 +15308,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="596"/>
-      <c r="H168" s="602"/>
+      <c r="F168" s="595"/>
+      <c r="H168" s="608"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -15318,8 +15318,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="596"/>
-      <c r="H169" s="602"/>
+      <c r="F169" s="595"/>
+      <c r="H169" s="608"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -15331,7 +15331,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="602"/>
+      <c r="H170" s="608"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -15351,10 +15351,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="596" t="s">
+      <c r="F172" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="610" t="s">
+      <c r="H172" s="609" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15365,8 +15365,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="596"/>
-      <c r="H173" s="610"/>
+      <c r="F173" s="595"/>
+      <c r="H173" s="609"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -15376,8 +15376,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="596"/>
-      <c r="H174" s="610"/>
+      <c r="F174" s="595"/>
+      <c r="H174" s="609"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -15393,8 +15393,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="596"/>
-      <c r="H175" s="610"/>
+      <c r="F175" s="595"/>
+      <c r="H175" s="609"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -15410,10 +15410,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="596" t="s">
+      <c r="G176" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="602" t="s">
+      <c r="H176" s="608" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15430,8 +15430,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="596"/>
-      <c r="H177" s="602"/>
+      <c r="G177" s="595"/>
+      <c r="H177" s="608"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -15440,7 +15440,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="596" t="s">
+      <c r="G178" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="596"/>
+      <c r="G179" s="595"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -15484,7 +15484,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="602" t="s">
+      <c r="H182" s="608" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15506,7 +15506,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="602"/>
+      <c r="H183" s="608"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -15523,7 +15523,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="596" t="s">
+      <c r="G184" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15537,7 +15537,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="596"/>
+      <c r="G185" s="595"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -15572,7 +15572,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="602" t="s">
+      <c r="H188" s="608" t="s">
         <v>493</v>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="602"/>
+      <c r="H189" s="608"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -15609,10 +15609,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="596" t="s">
+      <c r="G190" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="602"/>
+      <c r="H190" s="608"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -15622,8 +15622,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="596"/>
-      <c r="H191" s="602"/>
+      <c r="G191" s="595"/>
+      <c r="H191" s="608"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -15644,7 +15644,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="596" t="s">
+      <c r="F194" s="595" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15656,7 +15656,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="596"/>
+      <c r="F195" s="595"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15674,7 +15674,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="596" t="s">
+      <c r="G196" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="596"/>
+      <c r="G197" s="595"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -15697,7 +15697,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="596"/>
+      <c r="G198" s="595"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -15714,7 +15714,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="596" t="s">
+      <c r="G199" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15729,7 +15729,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="596"/>
+      <c r="G200" s="595"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -15745,7 +15745,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="596"/>
+      <c r="G201" s="595"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -15763,7 +15763,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="596"/>
+      <c r="G202" s="595"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -15824,7 +15824,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="596" t="s">
+      <c r="G206" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15844,7 +15844,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="596"/>
+      <c r="G207" s="595"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="596"/>
+      <c r="G208" s="595"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -15880,7 +15880,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="596"/>
+      <c r="G209" s="595"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -15897,7 +15897,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="596"/>
+      <c r="G210" s="595"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -15914,7 +15914,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="596"/>
+      <c r="G211" s="595"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -15929,7 +15929,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="596"/>
+      <c r="G212" s="595"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -15948,7 +15948,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="602" t="s">
+      <c r="H213" s="608" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="602"/>
+      <c r="H214" s="608"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -15985,10 +15985,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="596" t="s">
+      <c r="F215" s="595" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="602" t="s">
+      <c r="H215" s="608" t="s">
         <v>546</v>
       </c>
     </row>
@@ -16000,8 +16000,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="596"/>
-      <c r="H216" s="602"/>
+      <c r="F216" s="595"/>
+      <c r="H216" s="608"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -16067,10 +16067,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="596" t="s">
+      <c r="F220" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="602" t="s">
+      <c r="H220" s="608" t="s">
         <v>556</v>
       </c>
     </row>
@@ -16082,8 +16082,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="596"/>
-      <c r="H221" s="602"/>
+      <c r="F221" s="595"/>
+      <c r="H221" s="608"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -16092,8 +16092,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="596"/>
-      <c r="H222" s="602"/>
+      <c r="F222" s="595"/>
+      <c r="H222" s="608"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -16124,10 +16124,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="596" t="s">
+      <c r="F226" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="610" t="s">
+      <c r="H226" s="609" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16138,8 +16138,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="596"/>
-      <c r="H227" s="610"/>
+      <c r="F227" s="595"/>
+      <c r="H227" s="609"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -16148,8 +16148,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="596"/>
-      <c r="H228" s="610"/>
+      <c r="F228" s="595"/>
+      <c r="H228" s="609"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -16159,8 +16159,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="596"/>
-      <c r="H229" s="610"/>
+      <c r="F229" s="595"/>
+      <c r="H229" s="609"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -16169,8 +16169,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="596"/>
-      <c r="H230" s="610"/>
+      <c r="F230" s="595"/>
+      <c r="H230" s="609"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -16189,7 +16189,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="610"/>
+      <c r="H231" s="609"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -16231,10 +16231,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="596" t="s">
+      <c r="F235" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="602" t="s">
+      <c r="H235" s="608" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16245,8 +16245,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="596"/>
-      <c r="H236" s="602"/>
+      <c r="F236" s="595"/>
+      <c r="H236" s="608"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -16255,8 +16255,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="596"/>
-      <c r="H237" s="602"/>
+      <c r="F237" s="595"/>
+      <c r="H237" s="608"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -16265,8 +16265,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="596"/>
-      <c r="H238" s="602"/>
+      <c r="F238" s="595"/>
+      <c r="H238" s="608"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -16282,7 +16282,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="596" t="s">
+      <c r="G239" s="595" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="596"/>
+      <c r="G240" s="595"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -16309,11 +16309,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="596" t="s">
+      <c r="F241" s="595" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="602" t="s">
+      <c r="H241" s="608" t="s">
         <v>79</v>
       </c>
     </row>
@@ -16324,9 +16324,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="596"/>
+      <c r="F242" s="595"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="602"/>
+      <c r="H242" s="608"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -16443,6 +16443,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="F164:F169"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="F194:F195"/>
     <mergeCell ref="G196:G198"/>
     <mergeCell ref="G199:G202"/>
@@ -16459,65 +16518,6 @@
     <mergeCell ref="F123:F125"/>
     <mergeCell ref="F126:F131"/>
     <mergeCell ref="F21:F26"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="F164:F169"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
